--- a/data/cleaned_data/2015_TX.xlsx
+++ b/data/cleaned_data/2015_TX.xlsx
@@ -2187,7 +2187,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>251</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
         <v>308</v>
@@ -2213,7 +2213,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>309</v>
@@ -2239,7 +2239,7 @@
         <v>264</v>
       </c>
       <c r="D4">
-        <v>472</v>
+        <v>799</v>
       </c>
       <c r="E4" t="s">
         <v>310</v>
@@ -2265,7 +2265,7 @@
         <v>265</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>311</v>
@@ -2291,7 +2291,7 @@
         <v>266</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>312</v>
@@ -2317,7 +2317,7 @@
         <v>266</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>313</v>
@@ -2343,7 +2343,7 @@
         <v>267</v>
       </c>
       <c r="D8">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
         <v>314</v>
@@ -2369,7 +2369,7 @@
         <v>268</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
         <v>315</v>
@@ -2395,7 +2395,7 @@
         <v>269</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>316</v>
@@ -2415,7 +2415,7 @@
         <v>262</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>317</v>
@@ -2441,7 +2441,7 @@
         <v>270</v>
       </c>
       <c r="D12">
-        <v>476</v>
+        <v>748</v>
       </c>
       <c r="E12" t="s">
         <v>318</v>
@@ -2467,7 +2467,7 @@
         <v>271</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>319</v>
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="D14">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
         <v>320</v>
@@ -2513,7 +2513,7 @@
         <v>272</v>
       </c>
       <c r="D15">
-        <v>1635</v>
+        <v>2594</v>
       </c>
       <c r="E15" t="s">
         <v>321</v>
@@ -2539,7 +2539,7 @@
         <v>273</v>
       </c>
       <c r="D16">
-        <v>17750</v>
+        <v>22912</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -2565,7 +2565,7 @@
         <v>274</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>323</v>
@@ -2585,7 +2585,7 @@
         <v>269</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>280</v>
@@ -2605,7 +2605,7 @@
         <v>274</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
         <v>324</v>
@@ -2625,7 +2625,7 @@
         <v>263</v>
       </c>
       <c r="D20">
-        <v>803</v>
+        <v>1205</v>
       </c>
       <c r="E20" t="s">
         <v>325</v>
@@ -2651,7 +2651,7 @@
         <v>275</v>
       </c>
       <c r="D21">
-        <v>1326</v>
+        <v>2079</v>
       </c>
       <c r="E21" t="s">
         <v>326</v>
@@ -2677,7 +2677,7 @@
         <v>276</v>
       </c>
       <c r="D22">
-        <v>1080</v>
+        <v>1971</v>
       </c>
       <c r="E22" t="s">
         <v>327</v>
@@ -2703,7 +2703,7 @@
         <v>269</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
         <v>328</v>
@@ -2723,7 +2723,7 @@
         <v>266</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>288</v>
@@ -2743,7 +2743,7 @@
         <v>277</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>329</v>
@@ -2763,7 +2763,7 @@
         <v>271</v>
       </c>
       <c r="D26">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
         <v>330</v>
@@ -2789,7 +2789,7 @@
         <v>274</v>
       </c>
       <c r="D27">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>331</v>
@@ -2815,7 +2815,7 @@
         <v>278</v>
       </c>
       <c r="D28">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="E28" t="s">
         <v>332</v>
@@ -2835,7 +2835,7 @@
         <v>279</v>
       </c>
       <c r="D29">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="E29" t="s">
         <v>315</v>
@@ -2861,7 +2861,7 @@
         <v>269</v>
       </c>
       <c r="D30">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
         <v>333</v>
@@ -2887,7 +2887,7 @@
         <v>271</v>
       </c>
       <c r="D31">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>334</v>
@@ -2913,7 +2913,7 @@
         <v>280</v>
       </c>
       <c r="D32">
-        <v>2893</v>
+        <v>3730</v>
       </c>
       <c r="E32" t="s">
         <v>335</v>
@@ -2939,7 +2939,7 @@
         <v>269</v>
       </c>
       <c r="D33">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>336</v>
@@ -2965,7 +2965,7 @@
         <v>281</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
         <v>337</v>
@@ -2991,7 +2991,7 @@
         <v>263</v>
       </c>
       <c r="D35">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
         <v>338</v>
@@ -3011,7 +3011,7 @@
         <v>269</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
         <v>339</v>
@@ -3031,7 +3031,7 @@
         <v>282</v>
       </c>
       <c r="D37">
-        <v>268</v>
+        <v>442</v>
       </c>
       <c r="E37" t="s">
         <v>340</v>
@@ -3057,7 +3057,7 @@
         <v>281</v>
       </c>
       <c r="D38">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="E38" t="s">
         <v>341</v>
@@ -3083,7 +3083,7 @@
         <v>266</v>
       </c>
       <c r="D39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>342</v>
@@ -3103,7 +3103,7 @@
         <v>269</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
         <v>343</v>
@@ -3129,7 +3129,7 @@
         <v>266</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
         <v>344</v>
@@ -3149,7 +3149,7 @@
         <v>268</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>345</v>
@@ -3169,7 +3169,7 @@
         <v>274</v>
       </c>
       <c r="D43">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
         <v>346</v>
@@ -3189,7 +3189,7 @@
         <v>283</v>
       </c>
       <c r="D44">
-        <v>3950</v>
+        <v>6272</v>
       </c>
       <c r="E44" t="s">
         <v>347</v>
@@ -3215,7 +3215,7 @@
         <v>277</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
         <v>270</v>
@@ -3235,7 +3235,7 @@
         <v>263</v>
       </c>
       <c r="D46">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
         <v>348</v>
@@ -3255,7 +3255,7 @@
         <v>267</v>
       </c>
       <c r="D47">
-        <v>584</v>
+        <v>929</v>
       </c>
       <c r="E47" t="s">
         <v>349</v>
@@ -3281,7 +3281,7 @@
         <v>274</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>323</v>
@@ -3301,7 +3301,7 @@
         <v>266</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
         <v>350</v>
@@ -3321,7 +3321,7 @@
         <v>284</v>
       </c>
       <c r="D50">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
         <v>351</v>
@@ -3347,7 +3347,7 @@
         <v>284</v>
       </c>
       <c r="D51">
-        <v>264</v>
+        <v>470</v>
       </c>
       <c r="E51" t="s">
         <v>352</v>
@@ -3373,7 +3373,7 @@
         <v>266</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>262</v>
@@ -3393,7 +3393,7 @@
         <v>265</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
         <v>303</v>
@@ -3413,7 +3413,7 @@
         <v>277</v>
       </c>
       <c r="D54">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
         <v>353</v>
@@ -3433,7 +3433,7 @@
         <v>274</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>286</v>
@@ -3459,7 +3459,7 @@
         <v>279</v>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E56" t="s">
         <v>354</v>
@@ -3479,7 +3479,7 @@
         <v>269</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
         <v>355</v>
@@ -3499,7 +3499,7 @@
         <v>285</v>
       </c>
       <c r="D58">
-        <v>19795</v>
+        <v>27443</v>
       </c>
       <c r="E58" t="s">
         <v>356</v>
@@ -3525,7 +3525,7 @@
         <v>274</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
         <v>357</v>
@@ -3551,7 +3551,7 @@
         <v>265</v>
       </c>
       <c r="D60">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
         <v>358</v>
@@ -3577,7 +3577,7 @@
         <v>265</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
         <v>359</v>
@@ -3597,7 +3597,7 @@
         <v>283</v>
       </c>
       <c r="D62">
-        <v>3112</v>
+        <v>4790</v>
       </c>
       <c r="E62" t="s">
         <v>360</v>
@@ -3623,7 +3623,7 @@
         <v>277</v>
       </c>
       <c r="D63">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
         <v>361</v>
@@ -3643,7 +3643,7 @@
         <v>269</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
         <v>344</v>
@@ -3663,7 +3663,7 @@
         <v>262</v>
       </c>
       <c r="D65">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
         <v>362</v>
@@ -3683,7 +3683,7 @@
         <v>266</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
         <v>319</v>
@@ -3703,7 +3703,7 @@
         <v>271</v>
       </c>
       <c r="D67">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
         <v>329</v>
@@ -3729,7 +3729,7 @@
         <v>262</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
         <v>363</v>
@@ -3749,7 +3749,7 @@
         <v>286</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>1579</v>
       </c>
       <c r="E69" t="s">
         <v>364</v>
@@ -3775,7 +3775,7 @@
         <v>277</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
         <v>301</v>
@@ -3795,7 +3795,7 @@
         <v>280</v>
       </c>
       <c r="D71">
-        <v>740</v>
+        <v>1088</v>
       </c>
       <c r="E71" t="s">
         <v>365</v>
@@ -3821,7 +3821,7 @@
         <v>287</v>
       </c>
       <c r="D72">
-        <v>4927</v>
+        <v>7160</v>
       </c>
       <c r="E72" t="s">
         <v>366</v>
@@ -3847,7 +3847,7 @@
         <v>264</v>
       </c>
       <c r="D73">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="E73" t="s">
         <v>367</v>
@@ -3873,7 +3873,7 @@
         <v>274</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="E74" t="s">
         <v>368</v>
@@ -3899,7 +3899,7 @@
         <v>262</v>
       </c>
       <c r="D75">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s">
         <v>369</v>
@@ -3925,7 +3925,7 @@
         <v>288</v>
       </c>
       <c r="D76">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="E76" t="s">
         <v>370</v>
@@ -3945,7 +3945,7 @@
         <v>265</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
         <v>371</v>
@@ -3965,7 +3965,7 @@
         <v>266</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
         <v>372</v>
@@ -3985,7 +3985,7 @@
         <v>266</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
         <v>293</v>
@@ -4005,7 +4005,7 @@
         <v>283</v>
       </c>
       <c r="D80">
-        <v>2264</v>
+        <v>3389</v>
       </c>
       <c r="E80" t="s">
         <v>373</v>
@@ -4031,7 +4031,7 @@
         <v>274</v>
       </c>
       <c r="D81">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E81" t="s">
         <v>374</v>
@@ -4051,7 +4051,7 @@
         <v>278</v>
       </c>
       <c r="D82">
-        <v>261</v>
+        <v>362</v>
       </c>
       <c r="E82" t="s">
         <v>375</v>
@@ -4071,7 +4071,7 @@
         <v>289</v>
       </c>
       <c r="D83">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
         <v>376</v>
@@ -4097,7 +4097,7 @@
         <v>289</v>
       </c>
       <c r="D84">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
         <v>377</v>
@@ -4117,7 +4117,7 @@
         <v>290</v>
       </c>
       <c r="D85">
-        <v>1624</v>
+        <v>2376</v>
       </c>
       <c r="E85" t="s">
         <v>378</v>
@@ -4143,7 +4143,7 @@
         <v>266</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
         <v>379</v>
@@ -4163,7 +4163,7 @@
         <v>268</v>
       </c>
       <c r="D87">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E87" t="s">
         <v>380</v>
@@ -4189,7 +4189,7 @@
         <v>271</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
         <v>381</v>
@@ -4209,7 +4209,7 @@
         <v>274</v>
       </c>
       <c r="D89">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E89" t="s">
         <v>382</v>
@@ -4235,7 +4235,7 @@
         <v>282</v>
       </c>
       <c r="D90">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="E90" t="s">
         <v>383</v>
@@ -4255,7 +4255,7 @@
         <v>271</v>
       </c>
       <c r="D91">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
         <v>384</v>
@@ -4281,7 +4281,7 @@
         <v>291</v>
       </c>
       <c r="D92">
-        <v>483</v>
+        <v>964</v>
       </c>
       <c r="E92" t="s">
         <v>385</v>
@@ -4307,7 +4307,7 @@
         <v>291</v>
       </c>
       <c r="D93">
-        <v>1455</v>
+        <v>1916</v>
       </c>
       <c r="E93" t="s">
         <v>386</v>
@@ -4333,7 +4333,7 @@
         <v>288</v>
       </c>
       <c r="D94">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="E94" t="s">
         <v>387</v>
@@ -4353,7 +4353,7 @@
         <v>292</v>
       </c>
       <c r="D95">
-        <v>536</v>
+        <v>839</v>
       </c>
       <c r="E95" t="s">
         <v>388</v>
@@ -4379,7 +4379,7 @@
         <v>274</v>
       </c>
       <c r="D96">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="E96" t="s">
         <v>389</v>
@@ -4405,7 +4405,7 @@
         <v>265</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
         <v>390</v>
@@ -4425,7 +4425,7 @@
         <v>293</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
         <v>391</v>
@@ -4445,7 +4445,7 @@
         <v>277</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>267</v>
@@ -4465,7 +4465,7 @@
         <v>269</v>
       </c>
       <c r="D100">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E100" t="s">
         <v>392</v>
@@ -4485,7 +4485,7 @@
         <v>281</v>
       </c>
       <c r="D101">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="E101" t="s">
         <v>393</v>
@@ -4511,7 +4511,7 @@
         <v>294</v>
       </c>
       <c r="D102">
-        <v>35686</v>
+        <v>46638</v>
       </c>
       <c r="E102" t="s">
         <v>394</v>
@@ -4537,7 +4537,7 @@
         <v>291</v>
       </c>
       <c r="D103">
-        <v>473</v>
+        <v>691</v>
       </c>
       <c r="E103" t="s">
         <v>395</v>
@@ -4563,7 +4563,7 @@
         <v>262</v>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E104" t="s">
         <v>396</v>
@@ -4583,7 +4583,7 @@
         <v>274</v>
       </c>
       <c r="D105">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
         <v>397</v>
@@ -4603,7 +4603,7 @@
         <v>267</v>
       </c>
       <c r="D106">
-        <v>876</v>
+        <v>1427</v>
       </c>
       <c r="E106" t="s">
         <v>398</v>
@@ -4629,7 +4629,7 @@
         <v>269</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
         <v>399</v>
@@ -4649,7 +4649,7 @@
         <v>267</v>
       </c>
       <c r="D108">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="E108" t="s">
         <v>400</v>
@@ -4675,7 +4675,7 @@
         <v>295</v>
       </c>
       <c r="D109">
-        <v>7603</v>
+        <v>9768</v>
       </c>
       <c r="E109" t="s">
         <v>401</v>
@@ -4701,7 +4701,7 @@
         <v>288</v>
       </c>
       <c r="D110">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="E110" t="s">
         <v>402</v>
@@ -4721,7 +4721,7 @@
         <v>268</v>
       </c>
       <c r="D111">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="E111" t="s">
         <v>403</v>
@@ -4747,7 +4747,7 @@
         <v>277</v>
       </c>
       <c r="D112">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="E112" t="s">
         <v>404</v>
@@ -4773,7 +4773,7 @@
         <v>281</v>
       </c>
       <c r="D113">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
         <v>405</v>
@@ -4799,7 +4799,7 @@
         <v>262</v>
       </c>
       <c r="D114">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="E114" t="s">
         <v>406</v>
@@ -4819,7 +4819,7 @@
         <v>279</v>
       </c>
       <c r="D115">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="E115" t="s">
         <v>407</v>
@@ -4845,7 +4845,7 @@
         <v>293</v>
       </c>
       <c r="D116">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s">
         <v>408</v>
@@ -4871,7 +4871,7 @@
         <v>276</v>
       </c>
       <c r="D117">
-        <v>464</v>
+        <v>713</v>
       </c>
       <c r="E117" t="s">
         <v>409</v>
@@ -4897,7 +4897,7 @@
         <v>271</v>
       </c>
       <c r="D118">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="E118" t="s">
         <v>410</v>
@@ -4923,7 +4923,7 @@
         <v>277</v>
       </c>
       <c r="D119">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E119" t="s">
         <v>411</v>
@@ -4949,7 +4949,7 @@
         <v>271</v>
       </c>
       <c r="D120">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E120" t="s">
         <v>412</v>
@@ -4969,7 +4969,7 @@
         <v>289</v>
       </c>
       <c r="D121">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E121" t="s">
         <v>413</v>
@@ -4989,7 +4989,7 @@
         <v>279</v>
       </c>
       <c r="D122">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="E122" t="s">
         <v>414</v>
@@ -5009,7 +5009,7 @@
         <v>266</v>
       </c>
       <c r="D123">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E123" t="s">
         <v>342</v>
@@ -5029,7 +5029,7 @@
         <v>296</v>
       </c>
       <c r="D124">
-        <v>2299</v>
+        <v>3313</v>
       </c>
       <c r="E124" t="s">
         <v>415</v>
@@ -5055,7 +5055,7 @@
         <v>269</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
         <v>342</v>
@@ -5075,7 +5075,7 @@
         <v>282</v>
       </c>
       <c r="D126">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="E126" t="s">
         <v>416</v>
@@ -5101,7 +5101,7 @@
         <v>297</v>
       </c>
       <c r="D127">
-        <v>711</v>
+        <v>1146</v>
       </c>
       <c r="E127" t="s">
         <v>417</v>
@@ -5127,7 +5127,7 @@
         <v>262</v>
       </c>
       <c r="D128">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="E128" t="s">
         <v>418</v>
@@ -5153,7 +5153,7 @@
         <v>281</v>
       </c>
       <c r="D129">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="E129" t="s">
         <v>419</v>
@@ -5173,7 +5173,7 @@
         <v>264</v>
       </c>
       <c r="D130">
-        <v>565</v>
+        <v>798</v>
       </c>
       <c r="E130" t="s">
         <v>420</v>
@@ -5199,7 +5199,7 @@
         <v>281</v>
       </c>
       <c r="D131">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="E131" t="s">
         <v>421</v>
@@ -5225,7 +5225,7 @@
         <v>265</v>
       </c>
       <c r="D132">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E132" t="s">
         <v>422</v>
@@ -5251,7 +5251,7 @@
         <v>266</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
         <v>282</v>
@@ -5271,7 +5271,7 @@
         <v>262</v>
       </c>
       <c r="D134">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="E134" t="s">
         <v>423</v>
@@ -5297,7 +5297,7 @@
         <v>281</v>
       </c>
       <c r="D135">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E135" t="s">
         <v>424</v>
@@ -5317,7 +5317,7 @@
         <v>269</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E136" t="s">
         <v>280</v>
@@ -5337,7 +5337,7 @@
         <v>265</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
         <v>280</v>
@@ -5357,7 +5357,7 @@
         <v>277</v>
       </c>
       <c r="D138">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="E138" t="s">
         <v>425</v>
@@ -5383,7 +5383,7 @@
         <v>269</v>
       </c>
       <c r="D139">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
         <v>272</v>
@@ -5403,7 +5403,7 @@
         <v>262</v>
       </c>
       <c r="D140">
-        <v>293</v>
+        <v>485</v>
       </c>
       <c r="E140" t="s">
         <v>426</v>
@@ -5429,7 +5429,7 @@
         <v>274</v>
       </c>
       <c r="D141">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
         <v>427</v>
@@ -5449,7 +5449,7 @@
         <v>271</v>
       </c>
       <c r="D142">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="E142" t="s">
         <v>428</v>
@@ -5475,7 +5475,7 @@
         <v>274</v>
       </c>
       <c r="D143">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -5495,7 +5495,7 @@
         <v>293</v>
       </c>
       <c r="D144">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E144" t="s">
         <v>429</v>
@@ -5515,7 +5515,7 @@
         <v>282</v>
       </c>
       <c r="D145">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="E145" t="s">
         <v>430</v>
@@ -5535,7 +5535,7 @@
         <v>262</v>
       </c>
       <c r="D146">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="E146" t="s">
         <v>431</v>
@@ -5555,7 +5555,7 @@
         <v>264</v>
       </c>
       <c r="D147">
-        <v>299</v>
+        <v>506</v>
       </c>
       <c r="E147" t="s">
         <v>432</v>
@@ -5581,7 +5581,7 @@
         <v>268</v>
       </c>
       <c r="D148">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="E148" t="s">
         <v>433</v>
@@ -5621,7 +5621,7 @@
         <v>262</v>
       </c>
       <c r="D150">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E150" t="s">
         <v>434</v>
@@ -5641,7 +5641,7 @@
         <v>265</v>
       </c>
       <c r="D151">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E151" t="s">
         <v>435</v>
@@ -5661,7 +5661,7 @@
         <v>265</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
         <v>292</v>
@@ -5687,7 +5687,7 @@
         <v>272</v>
       </c>
       <c r="D153">
-        <v>3284</v>
+        <v>4077</v>
       </c>
       <c r="E153" t="s">
         <v>436</v>
@@ -5713,7 +5713,7 @@
         <v>271</v>
       </c>
       <c r="D154">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E154" t="s">
         <v>437</v>
@@ -5739,7 +5739,7 @@
         <v>271</v>
       </c>
       <c r="D155">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="E155" t="s">
         <v>438</v>
@@ -5759,7 +5759,7 @@
         <v>271</v>
       </c>
       <c r="D156">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E156" t="s">
         <v>439</v>
@@ -5779,7 +5779,7 @@
         <v>278</v>
       </c>
       <c r="D157">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="E157" t="s">
         <v>440</v>
@@ -5805,7 +5805,7 @@
         <v>266</v>
       </c>
       <c r="D158">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E158" t="s">
         <v>275</v>
@@ -5825,7 +5825,7 @@
         <v>284</v>
       </c>
       <c r="D159">
-        <v>261</v>
+        <v>407</v>
       </c>
       <c r="E159" t="s">
         <v>441</v>
@@ -5851,7 +5851,7 @@
         <v>262</v>
       </c>
       <c r="D160">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="E160" t="s">
         <v>442</v>
@@ -5877,7 +5877,7 @@
         <v>274</v>
       </c>
       <c r="D161">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E161" t="s">
         <v>443</v>
@@ -5897,7 +5897,7 @@
         <v>298</v>
       </c>
       <c r="D162">
-        <v>1629</v>
+        <v>2573</v>
       </c>
       <c r="E162" t="s">
         <v>444</v>
@@ -5923,7 +5923,7 @@
         <v>274</v>
       </c>
       <c r="D163">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E163" t="s">
         <v>372</v>
@@ -5943,7 +5943,7 @@
         <v>281</v>
       </c>
       <c r="D164">
-        <v>170</v>
+        <v>319</v>
       </c>
       <c r="E164" t="s">
         <v>445</v>
@@ -5969,7 +5969,7 @@
         <v>269</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E165" t="s">
         <v>301</v>
@@ -5989,7 +5989,7 @@
         <v>299</v>
       </c>
       <c r="D166">
-        <v>1071</v>
+        <v>1653</v>
       </c>
       <c r="E166" t="s">
         <v>446</v>
@@ -6015,7 +6015,7 @@
         <v>277</v>
       </c>
       <c r="D167">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="E167" t="s">
         <v>414</v>
@@ -6035,7 +6035,7 @@
         <v>269</v>
       </c>
       <c r="D168">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E168" t="s">
         <v>447</v>
@@ -6055,7 +6055,7 @@
         <v>268</v>
       </c>
       <c r="D169">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E169" t="s">
         <v>353</v>
@@ -6075,7 +6075,7 @@
         <v>274</v>
       </c>
       <c r="D170">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E170" t="s">
         <v>448</v>
@@ -6095,7 +6095,7 @@
         <v>300</v>
       </c>
       <c r="D171">
-        <v>2709</v>
+        <v>4023</v>
       </c>
       <c r="E171" t="s">
         <v>449</v>
@@ -6121,7 +6121,7 @@
         <v>274</v>
       </c>
       <c r="D172">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="E172" t="s">
         <v>450</v>
@@ -6147,7 +6147,7 @@
         <v>265</v>
       </c>
       <c r="D173">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E173" t="s">
         <v>451</v>
@@ -6167,7 +6167,7 @@
         <v>266</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E174" t="s">
         <v>296</v>
@@ -6187,7 +6187,7 @@
         <v>288</v>
       </c>
       <c r="D175">
-        <v>357</v>
+        <v>534</v>
       </c>
       <c r="E175" t="s">
         <v>452</v>
@@ -6213,7 +6213,7 @@
         <v>278</v>
       </c>
       <c r="D176">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="E176" t="s">
         <v>453</v>
@@ -6239,7 +6239,7 @@
         <v>274</v>
       </c>
       <c r="D177">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E177" t="s">
         <v>454</v>
@@ -6259,7 +6259,7 @@
         <v>265</v>
       </c>
       <c r="D178">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E178" t="s">
         <v>455</v>
@@ -6285,7 +6285,7 @@
         <v>301</v>
       </c>
       <c r="D179">
-        <v>1516</v>
+        <v>2303</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -6311,7 +6311,7 @@
         <v>265</v>
       </c>
       <c r="D180">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E180" t="s">
         <v>457</v>
@@ -6331,7 +6331,7 @@
         <v>262</v>
       </c>
       <c r="D181">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E181" t="s">
         <v>458</v>
@@ -6357,7 +6357,7 @@
         <v>292</v>
       </c>
       <c r="D182">
-        <v>428</v>
+        <v>702</v>
       </c>
       <c r="E182" t="s">
         <v>459</v>
@@ -6383,7 +6383,7 @@
         <v>289</v>
       </c>
       <c r="D183">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="E183" t="s">
         <v>460</v>
@@ -6409,7 +6409,7 @@
         <v>289</v>
       </c>
       <c r="D184">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="E184" t="s">
         <v>461</v>
@@ -6429,7 +6429,7 @@
         <v>264</v>
       </c>
       <c r="D185">
-        <v>429</v>
+        <v>778</v>
       </c>
       <c r="E185" t="s">
         <v>462</v>
@@ -6455,7 +6455,7 @@
         <v>277</v>
       </c>
       <c r="D186">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E186" t="s">
         <v>463</v>
@@ -6475,7 +6475,7 @@
         <v>279</v>
       </c>
       <c r="D187">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="E187" t="s">
         <v>434</v>
@@ -6495,7 +6495,7 @@
         <v>282</v>
       </c>
       <c r="D188">
-        <v>203</v>
+        <v>346</v>
       </c>
       <c r="E188" t="s">
         <v>464</v>
@@ -6515,7 +6515,7 @@
         <v>270</v>
       </c>
       <c r="D189">
-        <v>962</v>
+        <v>1410</v>
       </c>
       <c r="E189" t="s">
         <v>465</v>
@@ -6541,7 +6541,7 @@
         <v>269</v>
       </c>
       <c r="D190">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E190" t="s">
         <v>313</v>
@@ -6561,7 +6561,7 @@
         <v>269</v>
       </c>
       <c r="D191">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E191" t="s">
         <v>466</v>
@@ -6581,7 +6581,7 @@
         <v>263</v>
       </c>
       <c r="D192">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="E192" t="s">
         <v>467</v>
@@ -6607,7 +6607,7 @@
         <v>271</v>
       </c>
       <c r="D193">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E193" t="s">
         <v>468</v>
@@ -6627,7 +6627,7 @@
         <v>268</v>
       </c>
       <c r="D194">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E194" t="s">
         <v>422</v>
@@ -6647,7 +6647,7 @@
         <v>274</v>
       </c>
       <c r="D195">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E195" t="s">
         <v>469</v>
@@ -6667,7 +6667,7 @@
         <v>302</v>
       </c>
       <c r="D196">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="E196" t="s">
         <v>470</v>
@@ -6693,7 +6693,7 @@
         <v>277</v>
       </c>
       <c r="D197">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E197" t="s">
         <v>471</v>
@@ -6713,7 +6713,7 @@
         <v>266</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
         <v>472</v>
@@ -6739,7 +6739,7 @@
         <v>274</v>
       </c>
       <c r="D199">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="E199" t="s">
         <v>473</v>
@@ -6765,7 +6765,7 @@
         <v>274</v>
       </c>
       <c r="D200">
-        <v>332</v>
+        <v>474</v>
       </c>
       <c r="E200" t="s">
         <v>474</v>
@@ -6791,7 +6791,7 @@
         <v>265</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E201" t="s">
         <v>475</v>
@@ -6811,7 +6811,7 @@
         <v>282</v>
       </c>
       <c r="D202">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="E202" t="s">
         <v>476</v>
@@ -6837,7 +6837,7 @@
         <v>265</v>
       </c>
       <c r="D203">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E203" t="s">
         <v>477</v>
@@ -6857,7 +6857,7 @@
         <v>274</v>
       </c>
       <c r="D204">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E204" t="s">
         <v>478</v>
@@ -6877,7 +6877,7 @@
         <v>271</v>
       </c>
       <c r="D205">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="E205" t="s">
         <v>479</v>
@@ -6897,7 +6897,7 @@
         <v>293</v>
       </c>
       <c r="D206">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="E206" t="s">
         <v>480</v>
@@ -6923,7 +6923,7 @@
         <v>266</v>
       </c>
       <c r="D207">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E207" t="s">
         <v>481</v>
@@ -6943,7 +6943,7 @@
         <v>266</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
         <v>482</v>
@@ -6963,7 +6963,7 @@
         <v>274</v>
       </c>
       <c r="D209">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E209" t="s">
         <v>483</v>
@@ -6989,7 +6989,7 @@
         <v>269</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
         <v>484</v>
@@ -7009,7 +7009,7 @@
         <v>262</v>
       </c>
       <c r="D211">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="E211" t="s">
         <v>431</v>
@@ -7029,7 +7029,7 @@
         <v>269</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E212" t="s">
         <v>485</v>
@@ -7049,7 +7049,7 @@
         <v>303</v>
       </c>
       <c r="D213">
-        <v>1796</v>
+        <v>2721</v>
       </c>
       <c r="E213" t="s">
         <v>486</v>
@@ -7075,7 +7075,7 @@
         <v>265</v>
       </c>
       <c r="D214">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E214" t="s">
         <v>354</v>
@@ -7095,7 +7095,7 @@
         <v>265</v>
       </c>
       <c r="D215">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="E215" t="s">
         <v>487</v>
@@ -7121,7 +7121,7 @@
         <v>265</v>
       </c>
       <c r="D216">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E216" t="s">
         <v>437</v>
@@ -7141,7 +7141,7 @@
         <v>277</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E217" t="s">
         <v>280</v>
@@ -7167,7 +7167,7 @@
         <v>266</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
         <v>292</v>
@@ -7187,7 +7187,7 @@
         <v>274</v>
       </c>
       <c r="D219">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E219" t="s">
         <v>488</v>
@@ -7207,7 +7207,7 @@
         <v>269</v>
       </c>
       <c r="D220">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E220" t="s">
         <v>391</v>
@@ -7227,7 +7227,7 @@
         <v>304</v>
       </c>
       <c r="D221">
-        <v>11639</v>
+        <v>16921</v>
       </c>
       <c r="E221" t="s">
         <v>489</v>
@@ -7253,7 +7253,7 @@
         <v>305</v>
       </c>
       <c r="D222">
-        <v>1099</v>
+        <v>1740</v>
       </c>
       <c r="E222" t="s">
         <v>490</v>
@@ -7279,7 +7279,7 @@
         <v>266</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E223" t="s">
         <v>263</v>
@@ -7299,7 +7299,7 @@
         <v>277</v>
       </c>
       <c r="D224">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E224" t="s">
         <v>491</v>
@@ -7319,7 +7319,7 @@
         <v>266</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E225" t="s">
         <v>492</v>
@@ -7339,7 +7339,7 @@
         <v>278</v>
       </c>
       <c r="D226">
-        <v>231</v>
+        <v>360</v>
       </c>
       <c r="E226" t="s">
         <v>493</v>
@@ -7365,7 +7365,7 @@
         <v>267</v>
       </c>
       <c r="D227">
-        <v>533</v>
+        <v>928</v>
       </c>
       <c r="E227" t="s">
         <v>494</v>
@@ -7391,7 +7391,7 @@
         <v>306</v>
       </c>
       <c r="D228">
-        <v>6855</v>
+        <v>11586</v>
       </c>
       <c r="E228" t="s">
         <v>495</v>
@@ -7417,7 +7417,7 @@
         <v>274</v>
       </c>
       <c r="D229">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E229" t="s">
         <v>496</v>
@@ -7437,7 +7437,7 @@
         <v>278</v>
       </c>
       <c r="D230">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E230" t="s">
         <v>323</v>
@@ -7457,7 +7457,7 @@
         <v>281</v>
       </c>
       <c r="D231">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="E231" t="s">
         <v>375</v>
@@ -7483,7 +7483,7 @@
         <v>277</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E232" t="s">
         <v>497</v>
@@ -7503,7 +7503,7 @@
         <v>265</v>
       </c>
       <c r="D233">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="E233" t="s">
         <v>498</v>
@@ -7529,7 +7529,7 @@
         <v>262</v>
       </c>
       <c r="D234">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="E234" t="s">
         <v>499</v>
@@ -7555,7 +7555,7 @@
         <v>279</v>
       </c>
       <c r="D235">
-        <v>268</v>
+        <v>437</v>
       </c>
       <c r="E235" t="s">
         <v>500</v>
@@ -7575,7 +7575,7 @@
         <v>267</v>
       </c>
       <c r="D236">
-        <v>392</v>
+        <v>609</v>
       </c>
       <c r="E236" t="s">
         <v>501</v>
@@ -7601,7 +7601,7 @@
         <v>281</v>
       </c>
       <c r="D237">
-        <v>342</v>
+        <v>516</v>
       </c>
       <c r="E237" t="s">
         <v>502</v>
@@ -7627,7 +7627,7 @@
         <v>293</v>
       </c>
       <c r="D238">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="E238" t="s">
         <v>503</v>
@@ -7653,7 +7653,7 @@
         <v>289</v>
       </c>
       <c r="D239">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E239" t="s">
         <v>504</v>
@@ -7673,7 +7673,7 @@
         <v>278</v>
       </c>
       <c r="D240">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="E240" t="s">
         <v>505</v>
@@ -7699,7 +7699,7 @@
         <v>302</v>
       </c>
       <c r="D241">
-        <v>2430</v>
+        <v>3260</v>
       </c>
       <c r="E241" t="s">
         <v>506</v>
@@ -7725,7 +7725,7 @@
         <v>263</v>
       </c>
       <c r="D242">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="E242" t="s">
         <v>507</v>
@@ -7751,7 +7751,7 @@
         <v>265</v>
       </c>
       <c r="D243">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E243" t="s">
         <v>508</v>
@@ -7771,7 +7771,7 @@
         <v>293</v>
       </c>
       <c r="D244">
-        <v>397</v>
+        <v>648</v>
       </c>
       <c r="E244" t="s">
         <v>509</v>
@@ -7797,7 +7797,7 @@
         <v>271</v>
       </c>
       <c r="D245">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E245" t="s">
         <v>510</v>
@@ -7823,7 +7823,7 @@
         <v>265</v>
       </c>
       <c r="D246">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E246" t="s">
         <v>511</v>
@@ -7849,7 +7849,7 @@
         <v>307</v>
       </c>
       <c r="D247">
-        <v>1507</v>
+        <v>2687</v>
       </c>
       <c r="E247" t="s">
         <v>512</v>
@@ -7875,7 +7875,7 @@
         <v>274</v>
       </c>
       <c r="D248">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="E248" t="s">
         <v>513</v>
@@ -7901,7 +7901,7 @@
         <v>262</v>
       </c>
       <c r="D249">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E249" t="s">
         <v>379</v>
@@ -7921,7 +7921,7 @@
         <v>302</v>
       </c>
       <c r="D250">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="E250" t="s">
         <v>514</v>
@@ -7947,7 +7947,7 @@
         <v>279</v>
       </c>
       <c r="D251">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E251" t="s">
         <v>515</v>
@@ -7967,7 +7967,7 @@
         <v>269</v>
       </c>
       <c r="D252">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E252" t="s">
         <v>382</v>
@@ -7987,7 +7987,7 @@
         <v>265</v>
       </c>
       <c r="D253">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E253" t="s">
         <v>516</v>
@@ -8007,7 +8007,7 @@
         <v>274</v>
       </c>
       <c r="D254">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E254" t="s">
         <v>517</v>
@@ -8033,7 +8033,7 @@
         <v>271</v>
       </c>
       <c r="D255">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E255" t="s">
         <v>497</v>
